--- a/Assets/_Excel/level.xlsx
+++ b/Assets/_Excel/level.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\UnityDemo\BattleFlagGame\Assets\_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\BattleFlagGameStudy\Assets\_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1519480A-BC4A-47D6-A9C0-A5821D64DCBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A812F3-A5DF-408B-9A13-6202A6C487C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2850" windowWidth="27675" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -53,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可怕的关卡，充满危机。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>初始平地</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,27 +73,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>复杂的深林住着远古的精灵。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>充满绝望的气息。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手试炼。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哥布林的栖息地。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>level_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>level_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手试炼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥布林的栖息地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可怕的关卡，充满危机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复杂的深林住着远古的精灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充满绝望的气息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -116,7 +116,6 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -463,18 +462,18 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="29.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,74 +501,74 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
